--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp6.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N2">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q2">
-        <v>9.493232180105554</v>
+        <v>12.78754244675556</v>
       </c>
       <c r="R2">
-        <v>85.43908962094999</v>
+        <v>115.0878820208</v>
       </c>
       <c r="S2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="T2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>131.916367</v>
       </c>
       <c r="O3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q3">
-        <v>45.32133362026109</v>
+        <v>45.32133362026111</v>
       </c>
       <c r="R3">
-        <v>407.8920025823498</v>
+        <v>407.89200258235</v>
       </c>
       <c r="S3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="T3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,13 +679,13 @@
         <v>15.740255</v>
       </c>
       <c r="N4">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q4">
         <v>16.22321849091667</v>
@@ -694,10 +694,10 @@
         <v>146.00896641825</v>
       </c>
       <c r="S4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="T4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
     </row>
   </sheetData>
